--- a/Statistical test and regression summaries/stat tests summary.xlsx
+++ b/Statistical test and regression summaries/stat tests summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\egyetem\hsdslab\twitter scraping\CSVs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92A82107-FC20-492A-A336-E9A3221FFE2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7487F5C4-68A6-4B49-9390-3B8531A37669}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -438,18 +438,6 @@
     <t>(top4) cardinality</t>
   </si>
   <si>
-    <t>ratio of popular tweets in the category</t>
-  </si>
-  <si>
-    <t>(top4) ratio of popular tweets in the category</t>
-  </si>
-  <si>
-    <t>ratio of popular tweets in the rest</t>
-  </si>
-  <si>
-    <t>(top4) ratio of popular tweets in the rest</t>
-  </si>
-  <si>
     <t>odds ratio</t>
   </si>
   <si>
@@ -463,6 +451,18 @@
   </si>
   <si>
     <t>(top4) signifficant ratio</t>
+  </si>
+  <si>
+    <t>(top4) probability of popular tweets in the category</t>
+  </si>
+  <si>
+    <t>probability of popular tweets in the category</t>
+  </si>
+  <si>
+    <t>probability of popular tweets in the rest</t>
+  </si>
+  <si>
+    <t>(top4) probability of popular tweets in the rest</t>
   </si>
 </sst>
 </file>
@@ -576,17 +576,17 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -876,73 +876,73 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S173"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="58" zoomScaleNormal="58" workbookViewId="0">
-      <selection activeCell="Q123" sqref="Q123"/>
+    <sheetView tabSelected="1" topLeftCell="F87" zoomScale="59" zoomScaleNormal="59" workbookViewId="0">
+      <selection activeCell="K118" sqref="K118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="2.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.6328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.08984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.1796875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="38" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="28.36328125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="34.1796875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="28.7265625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="34.54296875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="32.90625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="50.81640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="55.26953125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="32.26953125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="36.6328125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.7265625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="25.6328125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="41.6328125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="46.08984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="42.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="31.90625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="43.453125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="49.81640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="39.1796875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="45.54296875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="55.81640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="61" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="63.08984375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="66.453125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="24" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="28.90625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="46.453125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="51.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8"/>
-      <c r="M1" s="8"/>
-      <c r="N1" s="8"/>
-      <c r="O1" s="8"/>
-      <c r="P1" s="8"/>
-      <c r="Q1" s="8"/>
-      <c r="R1" s="8"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="10"/>
+      <c r="N1" s="10"/>
+      <c r="O1" s="10"/>
+      <c r="P1" s="10"/>
+      <c r="Q1" s="10"/>
+      <c r="R1" s="10"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A2" s="8"/>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8"/>
-      <c r="L2" s="8"/>
-      <c r="M2" s="8"/>
-      <c r="N2" s="8"/>
-      <c r="O2" s="8"/>
-      <c r="P2" s="8"/>
-      <c r="Q2" s="8"/>
-      <c r="R2" s="8"/>
+      <c r="A2" s="10"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="10"/>
+      <c r="N2" s="10"/>
+      <c r="O2" s="10"/>
+      <c r="P2" s="10"/>
+      <c r="Q2" s="10"/>
+      <c r="R2" s="10"/>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B3" s="1" t="s">
@@ -978,7 +978,7 @@
       <c r="L3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="M3" s="10" t="s">
+      <c r="M3" s="8" t="s">
         <v>132</v>
       </c>
       <c r="N3" s="1" t="s">
@@ -996,7 +996,7 @@
       <c r="R3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="S3" s="11"/>
+      <c r="S3" s="9"/>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A4" s="2">
@@ -4751,36 +4751,36 @@
       </c>
     </row>
     <row r="72" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A72" s="8" t="s">
+      <c r="A72" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="B72" s="9"/>
-      <c r="C72" s="9"/>
-      <c r="D72" s="9"/>
-      <c r="E72" s="9"/>
-      <c r="F72" s="9"/>
-      <c r="G72" s="9"/>
-      <c r="H72" s="9"/>
-      <c r="I72" s="9"/>
-      <c r="J72" s="9"/>
-      <c r="K72" s="9"/>
-      <c r="L72" s="9"/>
-      <c r="M72" s="9"/>
+      <c r="B72" s="11"/>
+      <c r="C72" s="11"/>
+      <c r="D72" s="11"/>
+      <c r="E72" s="11"/>
+      <c r="F72" s="11"/>
+      <c r="G72" s="11"/>
+      <c r="H72" s="11"/>
+      <c r="I72" s="11"/>
+      <c r="J72" s="11"/>
+      <c r="K72" s="11"/>
+      <c r="L72" s="11"/>
+      <c r="M72" s="11"/>
     </row>
     <row r="73" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A73" s="9"/>
-      <c r="B73" s="9"/>
-      <c r="C73" s="9"/>
-      <c r="D73" s="9"/>
-      <c r="E73" s="9"/>
-      <c r="F73" s="9"/>
-      <c r="G73" s="9"/>
-      <c r="H73" s="9"/>
-      <c r="I73" s="9"/>
-      <c r="J73" s="9"/>
-      <c r="K73" s="9"/>
-      <c r="L73" s="9"/>
-      <c r="M73" s="9"/>
+      <c r="A73" s="11"/>
+      <c r="B73" s="11"/>
+      <c r="C73" s="11"/>
+      <c r="D73" s="11"/>
+      <c r="E73" s="11"/>
+      <c r="F73" s="11"/>
+      <c r="G73" s="11"/>
+      <c r="H73" s="11"/>
+      <c r="I73" s="11"/>
+      <c r="J73" s="11"/>
+      <c r="K73" s="11"/>
+      <c r="L73" s="11"/>
+      <c r="M73" s="11"/>
     </row>
     <row r="74" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B74" s="1" t="s">
@@ -5395,42 +5395,42 @@
       </c>
     </row>
     <row r="91" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A91" s="8" t="s">
+      <c r="A91" s="10" t="s">
         <v>134</v>
       </c>
-      <c r="B91" s="8"/>
-      <c r="C91" s="8"/>
-      <c r="D91" s="8"/>
-      <c r="E91" s="8"/>
-      <c r="F91" s="8"/>
-      <c r="G91" s="8"/>
-      <c r="H91" s="8"/>
-      <c r="I91" s="8"/>
-      <c r="J91" s="8"/>
-      <c r="K91" s="8"/>
-      <c r="L91" s="8"/>
-      <c r="M91" s="8"/>
-      <c r="N91" s="8"/>
-      <c r="O91" s="8"/>
-      <c r="P91" s="8"/>
+      <c r="B91" s="10"/>
+      <c r="C91" s="10"/>
+      <c r="D91" s="10"/>
+      <c r="E91" s="10"/>
+      <c r="F91" s="10"/>
+      <c r="G91" s="10"/>
+      <c r="H91" s="10"/>
+      <c r="I91" s="10"/>
+      <c r="J91" s="10"/>
+      <c r="K91" s="10"/>
+      <c r="L91" s="10"/>
+      <c r="M91" s="10"/>
+      <c r="N91" s="10"/>
+      <c r="O91" s="10"/>
+      <c r="P91" s="10"/>
     </row>
     <row r="92" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A92" s="8"/>
-      <c r="B92" s="8"/>
-      <c r="C92" s="8"/>
-      <c r="D92" s="8"/>
-      <c r="E92" s="8"/>
-      <c r="F92" s="8"/>
-      <c r="G92" s="8"/>
-      <c r="H92" s="8"/>
-      <c r="I92" s="8"/>
-      <c r="J92" s="8"/>
-      <c r="K92" s="8"/>
-      <c r="L92" s="8"/>
-      <c r="M92" s="8"/>
-      <c r="N92" s="8"/>
-      <c r="O92" s="8"/>
-      <c r="P92" s="8"/>
+      <c r="A92" s="10"/>
+      <c r="B92" s="10"/>
+      <c r="C92" s="10"/>
+      <c r="D92" s="10"/>
+      <c r="E92" s="10"/>
+      <c r="F92" s="10"/>
+      <c r="G92" s="10"/>
+      <c r="H92" s="10"/>
+      <c r="I92" s="10"/>
+      <c r="J92" s="10"/>
+      <c r="K92" s="10"/>
+      <c r="L92" s="10"/>
+      <c r="M92" s="10"/>
+      <c r="N92" s="10"/>
+      <c r="O92" s="10"/>
+      <c r="P92" s="10"/>
     </row>
     <row r="93" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B93" s="1" t="s">
@@ -5449,34 +5449,34 @@
         <v>136</v>
       </c>
       <c r="G93" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="H93" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="I93" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="J93" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="K93" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="H93" s="1" t="s">
+      <c r="L93" s="1" t="s">
         <v>138</v>
-      </c>
-      <c r="I93" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="J93" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="K93" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="L93" s="1" t="s">
-        <v>142</v>
       </c>
       <c r="M93" s="1" t="s">
         <v>93</v>
       </c>
       <c r="N93" s="1" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="O93" s="1" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="P93" s="1" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
     </row>
     <row r="94" spans="1:16" x14ac:dyDescent="0.35">
@@ -8130,38 +8130,38 @@
       </c>
     </row>
     <row r="149" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A149" s="8" t="s">
+      <c r="A149" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="B149" s="9"/>
-      <c r="C149" s="9"/>
-      <c r="D149" s="9"/>
-      <c r="E149" s="9"/>
-      <c r="F149" s="9"/>
-      <c r="G149" s="9"/>
-      <c r="H149" s="9"/>
-      <c r="I149" s="9"/>
-      <c r="J149" s="9"/>
-      <c r="K149" s="9"/>
-      <c r="L149" s="9"/>
-      <c r="M149" s="9"/>
-      <c r="N149" s="9"/>
+      <c r="B149" s="11"/>
+      <c r="C149" s="11"/>
+      <c r="D149" s="11"/>
+      <c r="E149" s="11"/>
+      <c r="F149" s="11"/>
+      <c r="G149" s="11"/>
+      <c r="H149" s="11"/>
+      <c r="I149" s="11"/>
+      <c r="J149" s="11"/>
+      <c r="K149" s="11"/>
+      <c r="L149" s="11"/>
+      <c r="M149" s="11"/>
+      <c r="N149" s="11"/>
     </row>
     <row r="150" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A150" s="9"/>
-      <c r="B150" s="9"/>
-      <c r="C150" s="9"/>
-      <c r="D150" s="9"/>
-      <c r="E150" s="9"/>
-      <c r="F150" s="9"/>
-      <c r="G150" s="9"/>
-      <c r="H150" s="9"/>
-      <c r="I150" s="9"/>
-      <c r="J150" s="9"/>
-      <c r="K150" s="9"/>
-      <c r="L150" s="9"/>
-      <c r="M150" s="9"/>
-      <c r="N150" s="9"/>
+      <c r="A150" s="11"/>
+      <c r="B150" s="11"/>
+      <c r="C150" s="11"/>
+      <c r="D150" s="11"/>
+      <c r="E150" s="11"/>
+      <c r="F150" s="11"/>
+      <c r="G150" s="11"/>
+      <c r="H150" s="11"/>
+      <c r="I150" s="11"/>
+      <c r="J150" s="11"/>
+      <c r="K150" s="11"/>
+      <c r="L150" s="11"/>
+      <c r="M150" s="11"/>
+      <c r="N150" s="11"/>
     </row>
     <row r="151" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B151" s="1" t="s">

--- a/Statistical test and regression summaries/stat tests summary.xlsx
+++ b/Statistical test and regression summaries/stat tests summary.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\egyetem\hsdslab\twitter scraping\CSVs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7487F5C4-68A6-4B49-9390-3B8531A37669}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED04CC4D-B035-4AE9-BE1B-5E5B448601CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -426,9 +426,6 @@
     <t>is the mean greater in the category? / is the correlation positive?</t>
   </si>
   <si>
-    <t>top4 the mean greater in the category?  / is the correlation positive?</t>
-  </si>
-  <si>
     <t>Fisher exact tests for the odds ratio of a tweet becoming popular depending on the presence of a given category (one-vs-rest for higher cardinality). H0: the odds ratio is 1.</t>
   </si>
   <si>
@@ -463,6 +460,9 @@
   </si>
   <si>
     <t>(top4) probability of popular tweets in the rest</t>
+  </si>
+  <si>
+    <t>top4 is the mean greater in the category?  / is the correlation positive?</t>
   </si>
 </sst>
 </file>
@@ -876,8 +876,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S173"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F87" zoomScale="59" zoomScaleNormal="59" workbookViewId="0">
-      <selection activeCell="K118" sqref="K118"/>
+    <sheetView tabSelected="1" topLeftCell="M1" zoomScale="59" zoomScaleNormal="59" workbookViewId="0">
+      <selection activeCell="Q3" sqref="Q3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -982,7 +982,7 @@
         <v>132</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="O3" s="1" t="s">
         <v>11</v>
@@ -5396,7 +5396,7 @@
     </row>
     <row r="91" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A91" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B91" s="10"/>
       <c r="C91" s="10"/>
@@ -5434,7 +5434,7 @@
     </row>
     <row r="93" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B93" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C93" s="1" t="s">
         <v>2</v>
@@ -5446,37 +5446,37 @@
         <v>5</v>
       </c>
       <c r="F93" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="G93" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="H93" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="I93" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="J93" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="K93" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="G93" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="H93" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="I93" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="J93" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="K93" s="1" t="s">
+      <c r="L93" s="1" t="s">
         <v>137</v>
-      </c>
-      <c r="L93" s="1" t="s">
-        <v>138</v>
       </c>
       <c r="M93" s="1" t="s">
         <v>93</v>
       </c>
       <c r="N93" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="O93" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="O93" s="1" t="s">
+      <c r="P93" s="1" t="s">
         <v>140</v>
-      </c>
-      <c r="P93" s="1" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="94" spans="1:16" x14ac:dyDescent="0.35">
